--- a/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251001_164854.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251001_164854.xlsx
@@ -5071,7 +5071,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
